--- a/Sistema_de_Proc_Datos/conversiones.xlsx
+++ b/Sistema_de_Proc_Datos/conversiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UTN\Practicas_UTN\Sistema_de_Proc_Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5741C138-F24F-46B8-BDCD-2BF7BCEDB941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C24424C-BD12-435A-9A0A-97916813DBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AFE567B8-A278-40F2-B976-7CB09F1B1366}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="31">
   <si>
     <t>10</t>
   </si>
@@ -78,6 +78,54 @@
   <si>
     <t xml:space="preserve">se pueden hacer divisiones sucesivas o este metodo </t>
   </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>RESTA</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>CONVERSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Complemento A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO HAY ACARREO </t>
+  </si>
+  <si>
+    <t>SOLO HAY ACARREO SI SUPERA A LA BASE</t>
+  </si>
+  <si>
+    <t>COMPLEMENTO A2</t>
+  </si>
+  <si>
+    <t>complemento del sustraendo</t>
+  </si>
+  <si>
+    <t>sumar overflow</t>
+  </si>
+  <si>
+    <t>sumar minuendo con sustraendo</t>
+  </si>
+  <si>
+    <t>ignorar overflow</t>
+  </si>
+  <si>
+    <t>aca hice el complemento del minuendo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y la suma </t>
+  </si>
+  <si>
+    <t>sumo el overflow</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +229,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -458,11 +524,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -471,21 +584,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -498,9 +596,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -510,18 +605,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -548,6 +631,135 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,16 +769,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1338,6 +1544,285 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>123580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>124561</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95253</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector: angular 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6B8421-5734-4D31-BDFF-131B7B60201B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4677263" y="9637590"/>
+          <a:ext cx="609116" cy="176826"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -521"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>117231</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>139213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>241790</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>124558</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Conector: angular 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA2E55B-8FB0-4A97-B9AD-F003F5967161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4066444" y="9686192"/>
+          <a:ext cx="622788" cy="124559"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6471"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>170793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>32845</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo: esquinas redondeadas 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182BBF55-A2FE-4526-946D-C654BC507F57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5373414" y="17828172"/>
+          <a:ext cx="532086" cy="683173"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>59120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750EFF65-9528-481B-B8C9-94C034EE638C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7620000" y="762000"/>
+          <a:ext cx="1241534" cy="177362"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>262759</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>131378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>249620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72258</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector: angular 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09030AC9-3DBC-4545-BE72-FF44825AFA93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="10510345" y="1169275"/>
+          <a:ext cx="453258" cy="361293"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2174"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1638,14 +2123,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506138D7-E403-4927-A6D8-B3B03CC35F57}">
-  <dimension ref="A1:AY130"/>
+  <dimension ref="A1:AY133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AJ31" sqref="AJ31"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X84" sqref="X84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="5" width="2" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="2" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" hidden="1" customWidth="1"/>
@@ -1653,41 +2139,48 @@
     <col min="12" max="14" width="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.7109375" style="3" customWidth="1"/>
     <col min="18" max="20" width="3.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="22" customWidth="1"/>
     <col min="22" max="28" width="3.7109375" style="2" customWidth="1"/>
     <col min="29" max="29" width="3.7109375" style="5" customWidth="1"/>
     <col min="30" max="32" width="3.7109375" style="2" customWidth="1"/>
-    <col min="33" max="35" width="7" style="40" customWidth="1"/>
-    <col min="36" max="36" width="7.7109375" style="40" customWidth="1"/>
-    <col min="37" max="41" width="7" style="40" customWidth="1"/>
-    <col min="42" max="42" width="11" style="40" customWidth="1"/>
-    <col min="43" max="46" width="7" style="40" customWidth="1"/>
-    <col min="47" max="51" width="3.7109375" style="2" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" style="30" customWidth="1"/>
+    <col min="34" max="34" width="9.42578125" style="30" customWidth="1"/>
+    <col min="35" max="35" width="7" style="30" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" style="30" customWidth="1"/>
+    <col min="37" max="37" width="6.42578125" style="30" customWidth="1"/>
+    <col min="38" max="38" width="7" style="30" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" style="30" customWidth="1"/>
+    <col min="40" max="41" width="7" style="30" customWidth="1"/>
+    <col min="42" max="42" width="7.7109375" style="30" customWidth="1"/>
+    <col min="43" max="46" width="7" style="30" customWidth="1"/>
+    <col min="47" max="47" width="7" style="2" customWidth="1"/>
+    <col min="48" max="48" width="9.42578125" style="2" customWidth="1"/>
+    <col min="49" max="51" width="3.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="10" t="s">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="84"/>
       <c r="R1" s="3"/>
       <c r="T1" s="3">
         <v>8</v>
@@ -1705,20 +2198,20 @@
       <c r="AF1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
       <c r="AU1" s="3"/>
       <c r="AV1" s="3"/>
       <c r="AW1" s="3"/>
@@ -1726,92 +2219,98 @@
       <c r="AY1" s="3"/>
     </row>
     <row r="2" spans="1:51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="18">
-        <v>0</v>
-      </c>
-      <c r="L2" s="18">
-        <v>0</v>
-      </c>
-      <c r="M2" s="18">
-        <v>1</v>
-      </c>
-      <c r="N2" s="18">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="13">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13">
+        <v>1</v>
+      </c>
+      <c r="N2" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="18">
-        <v>0</v>
-      </c>
-      <c r="L3" s="18">
-        <v>1</v>
-      </c>
-      <c r="M3" s="18">
-        <v>0</v>
-      </c>
-      <c r="N3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="28">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
+        <v>1</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
+      <c r="S3" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="54"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="54"/>
+      <c r="AE3" s="22">
         <v>34</v>
       </c>
-      <c r="AF3" s="28" t="s">
+      <c r="AF3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="AI3" s="40">
@@ -1834,176 +2333,182 @@
       </c>
     </row>
     <row r="4" spans="1:51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
-        <v>1</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="18">
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
-        <v>1</v>
-      </c>
-      <c r="M4" s="18">
-        <v>0</v>
-      </c>
-      <c r="N4" s="18">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="30">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>1</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3"/>
+      <c r="Y4" s="22"/>
+      <c r="AE4" s="24">
         <v>32</v>
       </c>
-      <c r="AI4" s="40">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="40">
-        <v>2</v>
-      </c>
-      <c r="AK4" s="40">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="40">
-        <v>2</v>
-      </c>
-      <c r="AM4" s="40">
-        <v>2</v>
-      </c>
-      <c r="AN4" s="40">
+      <c r="AI4" s="30">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="30">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="30">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="30">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="15">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>1</v>
-      </c>
-      <c r="I5" s="15">
-        <v>1</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="18">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
-        <v>1</v>
-      </c>
-      <c r="M5" s="18">
-        <v>1</v>
-      </c>
-      <c r="N5" s="18">
-        <v>0</v>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>1</v>
+      </c>
+      <c r="M5" s="13">
+        <v>1</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
       </c>
       <c r="U5" s="3">
         <v>1</v>
       </c>
-      <c r="AE5" s="29">
-        <v>2</v>
-      </c>
-      <c r="AF5" s="26"/>
-      <c r="AI5" s="40">
+      <c r="AE5" s="23">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="20"/>
+      <c r="AI5" s="39">
         <v>32</v>
       </c>
-      <c r="AJ5" s="40">
+      <c r="AJ5" s="39">
         <v>16</v>
       </c>
-      <c r="AK5" s="40">
+      <c r="AK5" s="39">
         <v>8</v>
       </c>
-      <c r="AL5" s="40">
+      <c r="AL5" s="39">
         <v>4</v>
       </c>
-      <c r="AM5" s="40">
-        <v>2</v>
-      </c>
-      <c r="AN5" s="40">
+      <c r="AM5" s="39">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
-        <v>1</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>1</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="18">
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
-        <v>1</v>
-      </c>
-      <c r="M6" s="18">
-        <v>1</v>
-      </c>
-      <c r="N6" s="18">
-        <v>1</v>
-      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>1</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+      <c r="N6" s="13">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3"/>
       <c r="V6" s="2">
         <v>3</v>
       </c>
@@ -2013,82 +2518,83 @@
       <c r="AC6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AI6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="40">
+      <c r="AI6" s="45">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="45">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="45">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15">
-        <v>1</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="18">
-        <v>1</v>
-      </c>
-      <c r="L7" s="18">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18">
-        <v>0</v>
-      </c>
-      <c r="V7" s="24">
-        <v>1</v>
-      </c>
-      <c r="W7" s="24">
-        <v>0</v>
-      </c>
-      <c r="X7" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="24">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="24">
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="13">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3"/>
+      <c r="V7" s="18">
+        <v>1</v>
+      </c>
+      <c r="W7" s="18">
+        <v>0</v>
+      </c>
+      <c r="X7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="18">
         <v>0</v>
       </c>
       <c r="AC7" s="5">
@@ -2096,137 +2602,149 @@
       </c>
     </row>
     <row r="8" spans="1:51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="18">
-        <v>1</v>
-      </c>
-      <c r="L8" s="18">
-        <v>0</v>
-      </c>
-      <c r="M8" s="18">
-        <v>0</v>
-      </c>
-      <c r="N8" s="18">
-        <v>1</v>
-      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="13">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
+        <v>1</v>
+      </c>
+      <c r="U8" s="3"/>
+      <c r="AK8" s="22">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="22"/>
     </row>
     <row r="9" spans="1:51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="17">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="18">
-        <v>1</v>
-      </c>
-      <c r="L9" s="18">
-        <v>0</v>
-      </c>
-      <c r="M9" s="18">
-        <v>1</v>
-      </c>
-      <c r="N9" s="18">
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="13">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <v>1</v>
+      </c>
+      <c r="N9" s="13">
         <v>0</v>
       </c>
       <c r="U9" s="3">
         <v>2</v>
       </c>
+      <c r="AK9" s="24">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="15">
-        <v>1</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15">
-        <v>1</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="18">
-        <v>1</v>
-      </c>
-      <c r="L10" s="18">
-        <v>0</v>
-      </c>
-      <c r="M10" s="18">
-        <v>1</v>
-      </c>
-      <c r="N10" s="18">
-        <v>1</v>
-      </c>
-      <c r="V10" s="23">
-        <v>1</v>
-      </c>
-      <c r="W10" s="23"/>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="13">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
+        <v>1</v>
+      </c>
+      <c r="N10" s="13">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="17">
+        <v>1</v>
+      </c>
+      <c r="W10" s="17"/>
       <c r="Z10" s="2">
         <v>9</v>
       </c>
@@ -2237,60 +2755,62 @@
       <c r="AE10" s="2">
         <v>19</v>
       </c>
-      <c r="AF10" s="27">
+      <c r="AF10" s="21">
         <v>8</v>
       </c>
+      <c r="AK10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="20"/>
     </row>
     <row r="11" spans="1:51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="15">
-        <v>1</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="18">
-        <v>1</v>
-      </c>
-      <c r="L11" s="18">
-        <v>1</v>
-      </c>
-      <c r="M11" s="18">
-        <v>0</v>
-      </c>
-      <c r="N11" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="13">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-      <c r="X11" s="25">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="25">
+      <c r="X11" s="19">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="19">
         <v>3</v>
       </c>
       <c r="AB11" s="4"/>
@@ -2303,22 +2823,22 @@
       <c r="AF11" s="2">
         <v>2</v>
       </c>
-      <c r="AG11" s="27">
+      <c r="AG11" s="21">
         <v>8</v>
       </c>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="41"/>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="41"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
@@ -2326,7 +2846,7 @@
       <c r="AY11" s="4"/>
     </row>
     <row r="12" spans="1:51" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1"/>
@@ -2337,16 +2857,14 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="U12" s="3"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
@@ -2358,22 +2876,22 @@
       <c r="AF12" s="2">
         <v>2</v>
       </c>
-      <c r="AG12" s="41">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41"/>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="41"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
+      <c r="AG12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4"/>
@@ -2381,7 +2899,7 @@
       <c r="AY12" s="4"/>
     </row>
     <row r="13" spans="1:51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1"/>
@@ -2392,14 +2910,11 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="4"/>
-      <c r="T13" s="4"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
       <c r="U13" s="3">
         <v>3</v>
       </c>
@@ -2410,20 +2925,20 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41"/>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="41"/>
-      <c r="AO13" s="41"/>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="41"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="41"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
       <c r="AU13" s="4"/>
       <c r="AV13" s="4"/>
       <c r="AW13" s="4"/>
@@ -2431,7 +2946,7 @@
       <c r="AY13" s="4"/>
     </row>
     <row r="14" spans="1:51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1"/>
@@ -2450,14 +2965,12 @@
       <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="U14" s="3"/>
       <c r="V14" s="4">
         <v>1</v>
       </c>
@@ -2482,34 +2995,34 @@
       <c r="AC14" s="5">
         <v>2</v>
       </c>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="53">
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="38">
         <v>6</v>
       </c>
-      <c r="AI14" s="53">
+      <c r="AI14" s="38">
         <v>5</v>
       </c>
-      <c r="AJ14" s="53">
+      <c r="AJ14" s="38">
         <v>4</v>
       </c>
-      <c r="AK14" s="53">
+      <c r="AK14" s="38">
         <v>3</v>
       </c>
-      <c r="AL14" s="53">
-        <v>2</v>
-      </c>
-      <c r="AM14" s="53">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="53">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="41"/>
+      <c r="AL14" s="38">
+        <v>2</v>
+      </c>
+      <c r="AM14" s="38">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="38">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="31"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="31"/>
+      <c r="AT14" s="31"/>
       <c r="AU14" s="4"/>
       <c r="AV14" s="4"/>
       <c r="AW14" s="4"/>
@@ -2517,7 +3030,7 @@
       <c r="AY14" s="4"/>
     </row>
     <row r="15" spans="1:51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1"/>
@@ -2528,42 +3041,43 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="Y15" s="33">
+      <c r="J15" s="85"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="U15" s="3"/>
+      <c r="Y15" s="77">
         <v>115</v>
       </c>
-      <c r="Z15" s="34"/>
+      <c r="Z15" s="78"/>
       <c r="AC15" s="5">
         <v>10</v>
       </c>
-      <c r="AH15" s="40">
-        <v>2</v>
-      </c>
-      <c r="AI15" s="40">
-        <v>2</v>
-      </c>
-      <c r="AJ15" s="40">
-        <v>2</v>
-      </c>
-      <c r="AK15" s="40">
-        <v>2</v>
-      </c>
-      <c r="AL15" s="40">
-        <v>2</v>
-      </c>
-      <c r="AM15" s="40">
-        <v>2</v>
-      </c>
-      <c r="AN15" s="40">
+      <c r="AH15" s="30">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="30">
+        <v>2</v>
+      </c>
+      <c r="AJ15" s="30">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="30">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="30">
+        <v>2</v>
+      </c>
+      <c r="AM15" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN15" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1"/>
@@ -2574,35 +3088,37 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="AH16" s="40">
+      <c r="J16" s="85"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="U16" s="3"/>
+      <c r="Y16" s="22"/>
+      <c r="AH16" s="62">
         <v>64</v>
       </c>
-      <c r="AI16" s="40">
+      <c r="AI16" s="62">
         <v>32</v>
       </c>
-      <c r="AJ16" s="40">
+      <c r="AJ16" s="62">
         <v>16</v>
       </c>
-      <c r="AK16" s="40">
+      <c r="AK16" s="62">
         <v>8</v>
       </c>
-      <c r="AL16" s="40">
+      <c r="AL16" s="62">
         <v>4</v>
       </c>
-      <c r="AM16" s="40">
-        <v>2</v>
-      </c>
-      <c r="AN16" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="AM16" s="62">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1"/>
@@ -2613,34 +3129,36 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="AH17" s="40">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="40">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="40">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="40">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="40">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="85"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="U17" s="3"/>
+      <c r="Y17" s="22"/>
+      <c r="AH17" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="63">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="63">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="63">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="63">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="63">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2655,33 +3173,33 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="AH18" s="40">
+      <c r="AH18" s="33">
         <v>64</v>
       </c>
-      <c r="AI18" s="40">
+      <c r="AI18" s="33">
         <v>32</v>
       </c>
-      <c r="AJ18" s="40">
+      <c r="AJ18" s="33">
         <v>16</v>
       </c>
-      <c r="AK18" s="40">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="40">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="40">
-        <v>2</v>
-      </c>
-      <c r="AN18" s="40">
-        <v>1</v>
-      </c>
-      <c r="AO18" s="46">
+      <c r="AK18" s="33">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="33">
+        <v>2</v>
+      </c>
+      <c r="AN18" s="33">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="36">
         <f>SUM(AH18:AN18)</f>
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:46" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2708,9 +3226,8 @@
         <v>4</v>
       </c>
       <c r="S19" s="3"/>
-      <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:46" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:47" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2733,12 +3250,12 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="23">
+      <c r="Q20" s="25"/>
+      <c r="R20" s="17">
         <v>7</v>
       </c>
-      <c r="S20" s="23"/>
-      <c r="U20" s="2">
+      <c r="S20" s="17"/>
+      <c r="U20" s="22">
         <v>2</v>
       </c>
       <c r="X20" s="2">
@@ -2751,7 +3268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:46" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2774,40 +3291,40 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="Q21" s="51">
-        <v>1</v>
-      </c>
-      <c r="R21" s="38">
-        <v>1</v>
-      </c>
-      <c r="S21" s="42">
-        <v>1</v>
-      </c>
-      <c r="T21" s="37">
-        <v>0</v>
-      </c>
-      <c r="U21" s="38">
-        <v>1</v>
-      </c>
-      <c r="V21" s="42">
-        <v>0</v>
-      </c>
-      <c r="W21" s="37">
-        <v>1</v>
-      </c>
-      <c r="X21" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="42">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="42">
+      <c r="Q21" s="53">
+        <v>1</v>
+      </c>
+      <c r="R21" s="28">
+        <v>1</v>
+      </c>
+      <c r="S21" s="32">
+        <v>1</v>
+      </c>
+      <c r="T21" s="27">
+        <v>0</v>
+      </c>
+      <c r="U21" s="47">
+        <v>1</v>
+      </c>
+      <c r="V21" s="32">
+        <v>0</v>
+      </c>
+      <c r="W21" s="27">
+        <v>1</v>
+      </c>
+      <c r="X21" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="32">
         <v>0</v>
       </c>
       <c r="AC21" s="5">
@@ -2816,44 +3333,44 @@
       <c r="AD21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AG21" s="53">
+      <c r="AG21" s="38">
         <v>11</v>
       </c>
-      <c r="AH21" s="53">
+      <c r="AH21" s="38">
         <v>10</v>
       </c>
-      <c r="AI21" s="53">
+      <c r="AI21" s="38">
         <v>9</v>
       </c>
-      <c r="AJ21" s="53">
+      <c r="AJ21" s="38">
         <v>8</v>
       </c>
-      <c r="AK21" s="53">
+      <c r="AK21" s="38">
         <v>7</v>
       </c>
-      <c r="AL21" s="53">
+      <c r="AL21" s="38">
         <v>6</v>
       </c>
-      <c r="AM21" s="53">
+      <c r="AM21" s="38">
         <v>5</v>
       </c>
-      <c r="AN21" s="53">
+      <c r="AN21" s="38">
         <v>4</v>
       </c>
-      <c r="AO21" s="53">
+      <c r="AO21" s="38">
         <v>3</v>
       </c>
-      <c r="AP21" s="53">
-        <v>2</v>
-      </c>
-      <c r="AQ21" s="53">
-        <v>1</v>
-      </c>
-      <c r="AR21" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AP21" s="38">
+        <v>2</v>
+      </c>
+      <c r="AQ21" s="38">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2876,57 +3393,56 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="47">
+      <c r="Q22" s="26"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="V22" s="86">
         <v>3752</v>
       </c>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="49"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="88"/>
       <c r="AC22" s="5">
         <v>10</v>
       </c>
-      <c r="AG22" s="40">
-        <v>2</v>
-      </c>
-      <c r="AH22" s="40">
-        <v>2</v>
-      </c>
-      <c r="AI22" s="40">
-        <v>2</v>
-      </c>
-      <c r="AJ22" s="40">
-        <v>2</v>
-      </c>
-      <c r="AK22" s="40">
-        <v>2</v>
-      </c>
-      <c r="AL22" s="40">
-        <v>2</v>
-      </c>
-      <c r="AM22" s="40">
-        <v>2</v>
-      </c>
-      <c r="AN22" s="40">
-        <v>2</v>
-      </c>
-      <c r="AO22" s="40">
-        <v>2</v>
-      </c>
-      <c r="AP22" s="40">
-        <v>2</v>
-      </c>
-      <c r="AQ22" s="40">
-        <v>2</v>
-      </c>
-      <c r="AR22" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG22" s="30">
+        <v>2</v>
+      </c>
+      <c r="AH22" s="30">
+        <v>2</v>
+      </c>
+      <c r="AI22" s="30">
+        <v>2</v>
+      </c>
+      <c r="AJ22" s="30">
+        <v>2</v>
+      </c>
+      <c r="AK22" s="30">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="30">
+        <v>2</v>
+      </c>
+      <c r="AM22" s="30">
+        <v>2</v>
+      </c>
+      <c r="AN22" s="30">
+        <v>2</v>
+      </c>
+      <c r="AO22" s="30">
+        <v>2</v>
+      </c>
+      <c r="AP22" s="30">
+        <v>2</v>
+      </c>
+      <c r="AQ22" s="30">
+        <v>2</v>
+      </c>
+      <c r="AR22" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2949,44 +3465,44 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="AG23" s="40">
+      <c r="AG23" s="62">
         <v>2048</v>
       </c>
-      <c r="AH23" s="40">
+      <c r="AH23" s="62">
         <v>1024</v>
       </c>
-      <c r="AI23" s="40">
+      <c r="AI23" s="62">
         <v>512</v>
       </c>
-      <c r="AJ23" s="40">
+      <c r="AJ23" s="62">
         <v>256</v>
       </c>
-      <c r="AK23" s="40">
+      <c r="AK23" s="62">
         <v>128</v>
       </c>
-      <c r="AL23" s="40">
+      <c r="AL23" s="62">
         <v>64</v>
       </c>
-      <c r="AM23" s="40">
+      <c r="AM23" s="62">
         <v>32</v>
       </c>
-      <c r="AN23" s="40">
+      <c r="AN23" s="62">
         <v>16</v>
       </c>
-      <c r="AO23" s="40">
+      <c r="AO23" s="62">
         <v>8</v>
       </c>
-      <c r="AP23" s="40">
+      <c r="AP23" s="62">
         <v>4</v>
       </c>
-      <c r="AQ23" s="40">
-        <v>2</v>
-      </c>
-      <c r="AR23" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:46" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ23" s="62">
+        <v>2</v>
+      </c>
+      <c r="AR23" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3009,46 +3525,46 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="AG24" s="30">
-        <v>1</v>
-      </c>
-      <c r="AH24" s="30">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="30">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="30">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="30">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="30">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN24" s="30">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="30">
-        <v>1</v>
-      </c>
-      <c r="AP24" s="30">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="30">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="30">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="23"/>
+      <c r="AG24" s="24">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="24">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="24">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="24">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="24">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="24">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="17"/>
       <c r="AT24" s="2"/>
     </row>
-    <row r="25" spans="1:46" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3063,49 +3579,49 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="AG25" s="43">
+      <c r="AG25" s="33">
         <v>2048</v>
       </c>
-      <c r="AH25" s="43">
+      <c r="AH25" s="33">
         <v>1024</v>
       </c>
-      <c r="AI25" s="43">
+      <c r="AI25" s="33">
         <v>512</v>
       </c>
-      <c r="AJ25" s="43">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="43">
+      <c r="AJ25" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="33">
         <v>128</v>
       </c>
-      <c r="AL25" s="43">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="43">
+      <c r="AL25" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="33">
         <v>32</v>
       </c>
-      <c r="AN25" s="43">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="43">
+      <c r="AN25" s="33">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="33">
         <v>8</v>
       </c>
-      <c r="AP25" s="43">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="43">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="44">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="46">
+      <c r="AP25" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="33">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="34">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="36">
         <f>SUM(AG25:AQ25)</f>
         <v>3752</v>
       </c>
-      <c r="AT25" s="45"/>
-    </row>
-    <row r="26" spans="1:46" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AT25" s="35"/>
+    </row>
+    <row r="26" spans="1:47" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3120,9 +3636,13 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="AS26" s="43"/>
-    </row>
-    <row r="27" spans="1:46" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q26" s="3">
+        <v>5</v>
+      </c>
+      <c r="S26" s="30"/>
+      <c r="AS26" s="33"/>
+    </row>
+    <row r="27" spans="1:47" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3137,11 +3657,49 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="Q27" s="3">
+      <c r="U27" s="65"/>
+      <c r="V27" s="30">
+        <v>4</v>
+      </c>
+      <c r="W27" s="30">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:46" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X27" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="30">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="30">
+        <v>7</v>
+      </c>
+      <c r="AA27" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>8</v>
+      </c>
+      <c r="AG27" s="30">
+        <v>5</v>
+      </c>
+      <c r="AH27" s="30">
+        <v>4</v>
+      </c>
+      <c r="AI27" s="30">
+        <v>3</v>
+      </c>
+      <c r="AJ27" s="30">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="30">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="30"/>
+    </row>
+    <row r="28" spans="1:47" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3156,47 +3714,51 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="U28" s="2">
-        <v>4</v>
-      </c>
-      <c r="V28" s="2">
+      <c r="U28" s="67">
+        <v>1</v>
+      </c>
+      <c r="V28" s="66">
+        <v>2</v>
+      </c>
+      <c r="W28" s="66">
+        <v>0</v>
+      </c>
+      <c r="X28" s="66">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="66">
+        <v>6</v>
+      </c>
+      <c r="Z28" s="66">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="66">
         <v>5</v>
-      </c>
-      <c r="W28" s="2">
-        <v>6</v>
-      </c>
-      <c r="X28" s="52">
-        <v>2</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="2">
-        <v>1</v>
       </c>
       <c r="AC28" s="5">
         <v>7</v>
       </c>
-      <c r="AG28" s="40">
-        <v>5</v>
-      </c>
-      <c r="AH28" s="40">
-        <v>4</v>
-      </c>
-      <c r="AI28" s="40">
-        <v>3</v>
-      </c>
-      <c r="AJ28" s="40">
-        <v>2</v>
-      </c>
-      <c r="AK28" s="40">
-        <v>1</v>
-      </c>
-      <c r="AL28" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:46" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG28" s="30">
+        <v>8</v>
+      </c>
+      <c r="AH28" s="30">
+        <v>8</v>
+      </c>
+      <c r="AI28" s="30">
+        <v>8</v>
+      </c>
+      <c r="AJ28" s="30">
+        <v>8</v>
+      </c>
+      <c r="AK28" s="30">
+        <v>8</v>
+      </c>
+      <c r="AL28" s="30">
+        <v>8</v>
+      </c>
+      <c r="AU28" s="30"/>
+    </row>
+    <row r="29" spans="1:47" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3211,35 +3773,27 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="32"/>
-      <c r="AC29" s="5">
-        <v>10</v>
-      </c>
-      <c r="AE29" s="40"/>
-      <c r="AF29" s="40"/>
-      <c r="AG29" s="40">
-        <v>7</v>
-      </c>
-      <c r="AH29" s="40">
-        <v>7</v>
-      </c>
-      <c r="AI29" s="40">
-        <v>7</v>
-      </c>
-      <c r="AJ29" s="40">
-        <v>7</v>
-      </c>
-      <c r="AK29" s="40">
-        <v>7</v>
-      </c>
-      <c r="AL29" s="40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:46" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG29" s="62">
+        <v>32768</v>
+      </c>
+      <c r="AH29" s="62">
+        <v>4096</v>
+      </c>
+      <c r="AI29" s="62">
+        <v>512</v>
+      </c>
+      <c r="AJ29" s="62">
+        <v>64</v>
+      </c>
+      <c r="AK29" s="62">
+        <v>8</v>
+      </c>
+      <c r="AL29" s="62">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="62"/>
+    </row>
+    <row r="30" spans="1:47" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3254,28 +3808,27 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="AE30" s="40"/>
-      <c r="AF30" s="40"/>
-      <c r="AG30" s="55">
+      <c r="AG30" s="73">
         <v>4</v>
       </c>
-      <c r="AH30" s="55">
+      <c r="AH30" s="73">
         <v>5</v>
       </c>
-      <c r="AI30" s="55">
-        <v>6</v>
-      </c>
-      <c r="AJ30" s="55">
-        <v>2</v>
-      </c>
-      <c r="AK30" s="55">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:46" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI30" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="73">
+        <v>2</v>
+      </c>
+      <c r="AK30" s="73">
+        <v>7</v>
+      </c>
+      <c r="AL30" s="73">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="39"/>
+    </row>
+    <row r="31" spans="1:47" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3290,18 +3843,39 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="AG31" s="43"/>
-      <c r="AH31" s="43"/>
-      <c r="AI31" s="43"/>
-      <c r="AJ31" s="43"/>
-      <c r="AK31" s="43">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="43">
+      <c r="AG31" s="74">
+        <v>131072</v>
+      </c>
+      <c r="AH31" s="30">
+        <v>20480</v>
+      </c>
+      <c r="AI31" s="30">
+        <v>512</v>
+      </c>
+      <c r="AJ31" s="30">
+        <v>128</v>
+      </c>
+      <c r="AK31" s="30">
+        <v>56</v>
+      </c>
+      <c r="AL31" s="30">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="30">
+        <f>SUM(AG31:AL31)</f>
+        <v>152248</v>
+      </c>
+      <c r="AN31" s="5">
+        <v>10</v>
+      </c>
+      <c r="AP31" s="30">
+        <v>152248</v>
+      </c>
+      <c r="AQ31" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:46" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3316,8 +3890,19 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AP32" s="29">
+        <f>MOD(AP31,AQ31)</f>
+        <v>5</v>
+      </c>
+      <c r="AQ32" s="30">
+        <f>QUOTIENT(AP31,AQ31)</f>
+        <v>21749</v>
+      </c>
+      <c r="AR32" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3334,8 +3919,19 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ33" s="29">
+        <f>MOD(AQ32,AR32)</f>
+        <v>0</v>
+      </c>
+      <c r="AR33" s="30">
+        <f>QUOTIENT(AQ32,AR32)</f>
+        <v>3107</v>
+      </c>
+      <c r="AS33" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3350,8 +3946,19 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR34" s="29">
+        <f>MOD(AR33,AS33)</f>
+        <v>6</v>
+      </c>
+      <c r="AS34" s="30">
+        <f>QUOTIENT(AR33,AS33)</f>
+        <v>443</v>
+      </c>
+      <c r="AT34" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3366,8 +3973,19 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS35" s="29">
+        <f>MOD(AS34,AT34)</f>
+        <v>2</v>
+      </c>
+      <c r="AT35" s="30">
+        <f>QUOTIENT(AS34,AT34)</f>
+        <v>63</v>
+      </c>
+      <c r="AU35" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3382,8 +4000,19 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AT36" s="29">
+        <f>MOD(AT35,AU35)</f>
+        <v>0</v>
+      </c>
+      <c r="AU36" s="30">
+        <f>QUOTIENT(AT35,AU35)</f>
+        <v>9</v>
+      </c>
+      <c r="AV36" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3398,8 +4027,19 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU37" s="29">
+        <f>MOD(AU36,AV36)</f>
+        <v>2</v>
+      </c>
+      <c r="AV37" s="30">
+        <f>QUOTIENT(AU36,AV36)</f>
+        <v>1</v>
+      </c>
+      <c r="AW37" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3414,8 +4054,16 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AV38" s="29">
+        <f>MOD(AV37,AW37)</f>
+        <v>1</v>
+      </c>
+      <c r="AW38" s="30">
+        <f>QUOTIENT(AV37,AW37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3431,7 +4079,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3447,7 +4095,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3465,7 +4113,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3481,7 +4129,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3497,7 +4145,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3513,7 +4161,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3528,8 +4176,11 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q45" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3544,8 +4195,47 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U46" s="22">
+        <v>4</v>
+      </c>
+      <c r="V46" s="2">
+        <v>5</v>
+      </c>
+      <c r="W46" s="2">
+        <v>6</v>
+      </c>
+      <c r="X46" s="37">
+        <v>2</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="5">
+        <v>7</v>
+      </c>
+      <c r="AG46" s="40">
+        <v>5</v>
+      </c>
+      <c r="AH46" s="40">
+        <v>4</v>
+      </c>
+      <c r="AI46" s="40">
+        <v>3</v>
+      </c>
+      <c r="AJ46" s="40">
+        <v>2</v>
+      </c>
+      <c r="AK46" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL46" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3560,8 +4250,37 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V47" s="77">
+        <v>81390</v>
+      </c>
+      <c r="W47" s="79"/>
+      <c r="X47" s="79"/>
+      <c r="Y47" s="78"/>
+      <c r="AC47" s="5">
+        <v>10</v>
+      </c>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="30"/>
+      <c r="AG47" s="30">
+        <v>7</v>
+      </c>
+      <c r="AH47" s="30">
+        <v>7</v>
+      </c>
+      <c r="AI47" s="30">
+        <v>7</v>
+      </c>
+      <c r="AJ47" s="30">
+        <v>7</v>
+      </c>
+      <c r="AK47" s="30">
+        <v>7</v>
+      </c>
+      <c r="AL47" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3576,8 +4295,32 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S48" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="T48" s="54"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="30"/>
+      <c r="AG48" s="62">
+        <v>16807</v>
+      </c>
+      <c r="AH48" s="62">
+        <v>2401</v>
+      </c>
+      <c r="AI48" s="62">
+        <v>343</v>
+      </c>
+      <c r="AJ48" s="62">
+        <v>49</v>
+      </c>
+      <c r="AK48" s="62">
+        <v>7</v>
+      </c>
+      <c r="AL48" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3592,8 +4335,35 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q49" s="3">
+        <v>6</v>
+      </c>
+      <c r="T49" s="41"/>
+      <c r="U49" s="48">
+        <v>1</v>
+      </c>
+      <c r="V49" s="41"/>
+      <c r="W49" s="41"/>
+      <c r="AG49" s="39">
+        <v>4</v>
+      </c>
+      <c r="AH49" s="39">
+        <v>5</v>
+      </c>
+      <c r="AI49" s="39">
+        <v>6</v>
+      </c>
+      <c r="AJ49" s="39">
+        <v>2</v>
+      </c>
+      <c r="AK49" s="39">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3608,8 +4378,40 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T50" s="41"/>
+      <c r="U50" s="48">
+        <v>3</v>
+      </c>
+      <c r="V50" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="W50" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG50" s="33">
+        <v>67228</v>
+      </c>
+      <c r="AH50" s="33">
+        <v>12005</v>
+      </c>
+      <c r="AI50" s="33">
+        <v>2058</v>
+      </c>
+      <c r="AJ50" s="33">
+        <v>98</v>
+      </c>
+      <c r="AK50" s="33">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="33">
+        <v>1</v>
+      </c>
+      <c r="AM50" s="30">
+        <f>SUM(AG50:AL50)</f>
+        <v>81390</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3624,8 +4426,16 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T51" s="41"/>
+      <c r="U51" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="V51" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="W51" s="76"/>
+    </row>
+    <row r="52" spans="1:39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3640,8 +4450,24 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T52" s="41"/>
+      <c r="U52" s="50">
+        <v>16</v>
+      </c>
+      <c r="V52" s="42">
+        <v>21</v>
+      </c>
+      <c r="W52" s="5">
+        <v>16</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>16</v>
+      </c>
+      <c r="Z52" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3656,8 +4482,26 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T53" s="46">
+        <v>1</v>
+      </c>
+      <c r="U53" s="51">
+        <v>0</v>
+      </c>
+      <c r="V53" s="46">
+        <v>5</v>
+      </c>
+      <c r="W53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3673,7 +4517,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3688,8 +4532,14 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q55" s="3">
+        <v>7</v>
+      </c>
+      <c r="T55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3704,8 +4554,23 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T56" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="U56" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="V56" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="W56" s="41">
+        <v>5</v>
+      </c>
+      <c r="X56" s="75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3720,8 +4585,21 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T57" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="U57" s="49">
+        <v>7</v>
+      </c>
+      <c r="V57" s="49">
+        <v>4</v>
+      </c>
+      <c r="W57" s="49">
+        <v>8</v>
+      </c>
+      <c r="X57" s="76"/>
+    </row>
+    <row r="58" spans="1:39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3736,8 +4614,29 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T58" s="2">
+        <v>28</v>
+      </c>
+      <c r="U58" s="22">
+        <v>18</v>
+      </c>
+      <c r="V58" s="2">
+        <v>14</v>
+      </c>
+      <c r="W58" s="2">
+        <v>13</v>
+      </c>
+      <c r="X58" s="5">
+        <v>16</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA58" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3752,8 +4651,29 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S59" s="52">
+        <v>1</v>
+      </c>
+      <c r="T59" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="U59" s="52">
+        <v>2</v>
+      </c>
+      <c r="V59" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="W59" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3768,8 +4688,14 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z60" s="2">
+        <v>28</v>
+      </c>
+      <c r="AA60" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3784,8 +4710,14 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z61" s="2">
+        <v>12</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3800,8 +4732,15 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q62" s="3">
+        <v>8</v>
+      </c>
+      <c r="S62" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="T62" s="54"/>
+    </row>
+    <row r="63" spans="1:39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3816,8 +4755,20 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S63" s="59">
+        <v>9</v>
+      </c>
+      <c r="T63" s="2">
+        <v>16</v>
+      </c>
+      <c r="W63" s="2">
+        <v>16</v>
+      </c>
+      <c r="X63" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3832,8 +4783,23 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S64" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="T64" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="U64" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="W64" s="60">
+        <v>12</v>
+      </c>
+      <c r="AA64" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3848,8 +4814,18 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S65" s="43">
+        <v>3</v>
+      </c>
+      <c r="T65" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="U65" s="57"/>
+      <c r="W65" s="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3864,8 +4840,17 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S66" s="42">
+        <v>9</v>
+      </c>
+      <c r="T66" s="42">
+        <v>28</v>
+      </c>
+      <c r="U66" s="56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3880,8 +4865,15 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S67" s="43">
+        <v>3</v>
+      </c>
+      <c r="T67" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="U67" s="57"/>
+    </row>
+    <row r="68" spans="1:29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3896,8 +4888,14 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S68" s="61">
+        <v>6</v>
+      </c>
+      <c r="T68" s="61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3912,8 +4910,13 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S69" s="64"/>
+      <c r="T69" s="64">
+        <v>7</v>
+      </c>
+      <c r="U69" s="64"/>
+    </row>
+    <row r="70" spans="1:29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3928,8 +4931,20 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q70" s="3">
+        <v>9</v>
+      </c>
+      <c r="S70" s="64">
+        <v>3</v>
+      </c>
+      <c r="T70" s="64">
+        <v>1</v>
+      </c>
+      <c r="U70" s="64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3944,8 +4959,20 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S71" s="58">
+        <v>4</v>
+      </c>
+      <c r="T71" s="58">
+        <v>2</v>
+      </c>
+      <c r="U71" s="41">
+        <v>1</v>
+      </c>
+      <c r="V71" s="44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3960,8 +4987,21 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S72" s="43">
+        <v>2</v>
+      </c>
+      <c r="T72" s="43">
+        <v>5</v>
+      </c>
+      <c r="U72" s="43">
+        <v>6</v>
+      </c>
+      <c r="V72" s="45"/>
+      <c r="AA72" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3976,8 +5016,17 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S73" s="66">
+        <v>1</v>
+      </c>
+      <c r="T73" s="66">
+        <v>3</v>
+      </c>
+      <c r="U73" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3993,7 +5042,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4009,7 +5058,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4024,8 +5073,19 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q76" s="3">
+        <v>10</v>
+      </c>
+      <c r="S76" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="T76" s="55"/>
+      <c r="U76" s="54"/>
+      <c r="V76" s="54"/>
+      <c r="W76" s="54"/>
+      <c r="AC76" s="2"/>
+    </row>
+    <row r="77" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4040,8 +5100,9 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
-    </row>
-    <row r="78" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC77" s="2"/>
+    </row>
+    <row r="78" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4056,8 +5117,28 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R78" s="70"/>
+      <c r="S78" s="35">
+        <v>4</v>
+      </c>
+      <c r="T78" s="30">
+        <v>5</v>
+      </c>
+      <c r="U78" s="65">
+        <v>6</v>
+      </c>
+      <c r="V78" s="30">
+        <v>7</v>
+      </c>
+      <c r="W78" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z78" s="5">
+        <v>8</v>
+      </c>
+      <c r="AC78" s="2"/>
+    </row>
+    <row r="79" spans="1:29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4072,8 +5153,23 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
-    </row>
-    <row r="80" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R79" s="70"/>
+      <c r="S79" s="69">
+        <v>4</v>
+      </c>
+      <c r="T79" s="63">
+        <v>3</v>
+      </c>
+      <c r="U79" s="63">
+        <v>2</v>
+      </c>
+      <c r="V79" s="63">
+        <v>1</v>
+      </c>
+      <c r="W79" s="45"/>
+      <c r="AC79" s="2"/>
+    </row>
+    <row r="80" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4088,8 +5184,24 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R80" s="70">
+        <v>1</v>
+      </c>
+      <c r="S80" s="2">
+        <v>1</v>
+      </c>
+      <c r="T80" s="2">
+        <v>1</v>
+      </c>
+      <c r="U80" s="22">
+        <v>1</v>
+      </c>
+      <c r="W80" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC80" s="2"/>
+    </row>
+    <row r="81" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4104,8 +5216,28 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R81" s="70">
+        <v>0</v>
+      </c>
+      <c r="S81" s="35">
+        <v>4</v>
+      </c>
+      <c r="T81" s="30">
+        <v>5</v>
+      </c>
+      <c r="U81" s="65">
+        <v>6</v>
+      </c>
+      <c r="V81" s="30">
+        <v>7</v>
+      </c>
+      <c r="W81" s="45"/>
+      <c r="X81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC81" s="2"/>
+    </row>
+    <row r="82" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4120,8 +5252,27 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R82" s="70">
+        <v>7</v>
+      </c>
+      <c r="S82" s="69">
+        <v>3</v>
+      </c>
+      <c r="T82" s="63">
+        <v>4</v>
+      </c>
+      <c r="U82" s="63">
+        <v>5</v>
+      </c>
+      <c r="V82" s="63">
+        <v>6</v>
+      </c>
+      <c r="X82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC82" s="2"/>
+    </row>
+    <row r="83" spans="1:32" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4136,8 +5287,27 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
-    </row>
-    <row r="84" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q83" s="3">
+        <v>1</v>
+      </c>
+      <c r="R83" s="70">
+        <v>0</v>
+      </c>
+      <c r="S83" s="69">
+        <v>0</v>
+      </c>
+      <c r="T83" s="63">
+        <v>2</v>
+      </c>
+      <c r="U83" s="63">
+        <v>4</v>
+      </c>
+      <c r="V83" s="63">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="2"/>
+    </row>
+    <row r="84" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4152,8 +5322,30 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R84" s="70">
+        <v>0</v>
+      </c>
+      <c r="S84" s="30">
+        <v>0</v>
+      </c>
+      <c r="T84" s="30">
+        <v>2</v>
+      </c>
+      <c r="U84" s="30">
+        <v>4</v>
+      </c>
+      <c r="V84" s="30">
+        <v>5</v>
+      </c>
+      <c r="W84" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="X84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC84" s="2"/>
+    </row>
+    <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4168,8 +5360,17 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
-    </row>
-    <row r="86" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R85" s="70"/>
+      <c r="S85" s="69"/>
+      <c r="T85" s="69"/>
+      <c r="U85" s="69"/>
+      <c r="V85" s="69">
+        <v>1</v>
+      </c>
+      <c r="W85" s="45"/>
+      <c r="AC85" s="2"/>
+    </row>
+    <row r="86" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4184,8 +5385,20 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R86" s="70"/>
+      <c r="S86" s="30"/>
+      <c r="T86" s="66">
+        <v>2</v>
+      </c>
+      <c r="U86" s="66">
+        <v>4</v>
+      </c>
+      <c r="V86" s="66">
+        <v>6</v>
+      </c>
+      <c r="AC86" s="2"/>
+    </row>
+    <row r="87" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4200,8 +5413,14 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R87" s="70"/>
+      <c r="S87" s="30"/>
+      <c r="T87" s="30"/>
+      <c r="U87" s="30"/>
+      <c r="V87" s="30"/>
+      <c r="AC87" s="2"/>
+    </row>
+    <row r="88" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4216,8 +5435,17 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R88" s="70"/>
+      <c r="S88" s="30"/>
+      <c r="T88" s="30"/>
+      <c r="U88" s="30"/>
+      <c r="V88" s="30"/>
+      <c r="AC88" s="2"/>
+      <c r="AF88" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4232,8 +5460,14 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
-    </row>
-    <row r="90" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R89" s="70"/>
+      <c r="S89" s="30"/>
+      <c r="T89" s="30"/>
+      <c r="U89" s="30"/>
+      <c r="V89" s="30"/>
+      <c r="AC89" s="2"/>
+    </row>
+    <row r="90" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4248,8 +5482,51 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R90" s="70"/>
+      <c r="S90" s="65">
+        <v>1</v>
+      </c>
+      <c r="T90" s="65">
+        <v>0</v>
+      </c>
+      <c r="U90" s="65">
+        <v>1</v>
+      </c>
+      <c r="V90" s="65">
+        <v>0</v>
+      </c>
+      <c r="W90" s="65">
+        <v>0</v>
+      </c>
+      <c r="X90" s="65">
+        <v>1</v>
+      </c>
+      <c r="Y90" s="65">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="65">
+        <v>1</v>
+      </c>
+      <c r="AA90" s="65">
+        <v>1</v>
+      </c>
+      <c r="AB90" s="65">
+        <v>1</v>
+      </c>
+      <c r="AC90" s="65">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="65">
+        <v>1</v>
+      </c>
+      <c r="AE90" s="65">
+        <v>1</v>
+      </c>
+      <c r="AF90" s="44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4264,8 +5541,49 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
-    </row>
-    <row r="92" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R91" s="70"/>
+      <c r="S91" s="69">
+        <v>0</v>
+      </c>
+      <c r="T91" s="69">
+        <v>1</v>
+      </c>
+      <c r="U91" s="69">
+        <v>1</v>
+      </c>
+      <c r="V91" s="69">
+        <v>0</v>
+      </c>
+      <c r="W91" s="69">
+        <v>1</v>
+      </c>
+      <c r="X91" s="69">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="69">
+        <v>1</v>
+      </c>
+      <c r="Z91" s="69">
+        <v>1</v>
+      </c>
+      <c r="AA91" s="69">
+        <v>1</v>
+      </c>
+      <c r="AB91" s="69">
+        <v>1</v>
+      </c>
+      <c r="AC91" s="69">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="69">
+        <v>1</v>
+      </c>
+      <c r="AE91" s="69">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="45"/>
+    </row>
+    <row r="92" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4280,8 +5598,19 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-    </row>
-    <row r="93" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R92" s="70"/>
+      <c r="W92" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC92" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD92" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF92" s="71"/>
+    </row>
+    <row r="93" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4296,8 +5625,53 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
-    </row>
-    <row r="94" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R93" s="70">
+        <v>0</v>
+      </c>
+      <c r="S93" s="65">
+        <v>1</v>
+      </c>
+      <c r="T93" s="65">
+        <v>0</v>
+      </c>
+      <c r="U93" s="65">
+        <v>1</v>
+      </c>
+      <c r="V93" s="65">
+        <v>0</v>
+      </c>
+      <c r="W93" s="65">
+        <v>0</v>
+      </c>
+      <c r="X93" s="65">
+        <v>1</v>
+      </c>
+      <c r="Y93" s="65">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="65">
+        <v>1</v>
+      </c>
+      <c r="AA93" s="65">
+        <v>1</v>
+      </c>
+      <c r="AB93" s="65">
+        <v>1</v>
+      </c>
+      <c r="AC93" s="65">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="65">
+        <v>1</v>
+      </c>
+      <c r="AE93" s="65">
+        <v>1</v>
+      </c>
+      <c r="AF93" s="44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4312,8 +5686,51 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
-    </row>
-    <row r="95" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R94" s="70">
+        <v>1</v>
+      </c>
+      <c r="S94" s="69">
+        <v>1</v>
+      </c>
+      <c r="T94" s="69">
+        <v>0</v>
+      </c>
+      <c r="U94" s="69">
+        <v>0</v>
+      </c>
+      <c r="V94" s="69">
+        <v>1</v>
+      </c>
+      <c r="W94" s="69">
+        <v>0</v>
+      </c>
+      <c r="X94" s="69">
+        <v>1</v>
+      </c>
+      <c r="Y94" s="69">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="69">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="69">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="69">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="69">
+        <v>1</v>
+      </c>
+      <c r="AF94" s="45"/>
+    </row>
+    <row r="95" spans="1:32" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4328,8 +5745,53 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
-    </row>
-    <row r="96" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q95" s="3">
+        <v>1</v>
+      </c>
+      <c r="R95" s="70">
+        <v>0</v>
+      </c>
+      <c r="S95" s="69">
+        <v>0</v>
+      </c>
+      <c r="T95" s="69">
+        <v>0</v>
+      </c>
+      <c r="U95" s="69">
+        <v>1</v>
+      </c>
+      <c r="V95" s="69">
+        <v>1</v>
+      </c>
+      <c r="W95" s="69">
+        <v>1</v>
+      </c>
+      <c r="X95" s="69">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="69">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="69">
+        <v>1</v>
+      </c>
+      <c r="AA95" s="69">
+        <v>1</v>
+      </c>
+      <c r="AB95" s="69">
+        <v>1</v>
+      </c>
+      <c r="AC95" s="69">
+        <v>1</v>
+      </c>
+      <c r="AD95" s="69">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4344,8 +5806,49 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R96" s="70"/>
+      <c r="S96" s="2">
+        <v>0</v>
+      </c>
+      <c r="T96" s="2">
+        <v>0</v>
+      </c>
+      <c r="U96" s="22">
+        <v>1</v>
+      </c>
+      <c r="V96" s="2">
+        <v>1</v>
+      </c>
+      <c r="W96" s="2">
+        <v>1</v>
+      </c>
+      <c r="X96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA96" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB96" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC96" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="44"/>
+    </row>
+    <row r="97" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4360,8 +5863,25 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
-    </row>
-    <row r="98" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R97" s="70"/>
+      <c r="S97" s="69"/>
+      <c r="T97" s="69"/>
+      <c r="U97" s="69"/>
+      <c r="V97" s="69"/>
+      <c r="W97" s="69"/>
+      <c r="X97" s="69"/>
+      <c r="Y97" s="69"/>
+      <c r="Z97" s="69"/>
+      <c r="AA97" s="69"/>
+      <c r="AB97" s="69"/>
+      <c r="AC97" s="69"/>
+      <c r="AD97" s="69"/>
+      <c r="AE97" s="69">
+        <v>1</v>
+      </c>
+      <c r="AF97" s="45"/>
+    </row>
+    <row r="98" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4376,8 +5896,50 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R98" s="70">
+        <v>0</v>
+      </c>
+      <c r="S98" s="2">
+        <v>0</v>
+      </c>
+      <c r="T98" s="2">
+        <v>0</v>
+      </c>
+      <c r="U98" s="67">
+        <v>1</v>
+      </c>
+      <c r="V98" s="66">
+        <v>1</v>
+      </c>
+      <c r="W98" s="66">
+        <v>1</v>
+      </c>
+      <c r="X98" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="66">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="66">
+        <v>1</v>
+      </c>
+      <c r="AA98" s="66">
+        <v>1</v>
+      </c>
+      <c r="AB98" s="66">
+        <v>1</v>
+      </c>
+      <c r="AC98" s="66">
+        <v>1</v>
+      </c>
+      <c r="AD98" s="66">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4392,8 +5954,10 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
-    </row>
-    <row r="100" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R99" s="70"/>
+      <c r="AC99" s="2"/>
+    </row>
+    <row r="100" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4408,8 +5972,10 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
-    </row>
-    <row r="101" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R100" s="70"/>
+      <c r="AC100" s="2"/>
+    </row>
+    <row r="101" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4424,8 +5990,13 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
-    </row>
-    <row r="102" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R101" s="70"/>
+      <c r="AC101" s="2"/>
+      <c r="AF101" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4440,8 +6011,31 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
-    </row>
-    <row r="103" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R102" s="70"/>
+      <c r="S102" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="T102" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="U102" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="V102" s="65">
+        <v>0</v>
+      </c>
+      <c r="W102" s="65">
+        <v>0</v>
+      </c>
+      <c r="X102" s="65">
+        <v>8</v>
+      </c>
+      <c r="Y102" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC102" s="2"/>
+    </row>
+    <row r="103" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4456,8 +6050,33 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
-    </row>
-    <row r="104" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R103" s="70"/>
+      <c r="S103" s="69"/>
+      <c r="T103" s="69">
+        <v>9</v>
+      </c>
+      <c r="U103" s="69">
+        <v>5</v>
+      </c>
+      <c r="V103" s="69">
+        <v>2</v>
+      </c>
+      <c r="W103" s="69">
+        <v>2</v>
+      </c>
+      <c r="X103" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y103" s="45"/>
+      <c r="AC103" s="2"/>
+      <c r="AI103" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ103" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4472,8 +6091,36 @@
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R104" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="S104" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="T104" s="69">
+        <v>4</v>
+      </c>
+      <c r="U104" s="69">
+        <v>8</v>
+      </c>
+      <c r="V104" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="W104" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="X104" s="69">
+        <v>3</v>
+      </c>
+      <c r="AC104" s="2"/>
+      <c r="AI104" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ104" s="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4488,8 +6135,25 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R105" s="70"/>
+      <c r="S105" s="2">
+        <v>1</v>
+      </c>
+      <c r="T105" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y105" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC105" s="2"/>
+      <c r="AI105" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ105" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4504,8 +6168,43 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R106" s="70">
+        <v>0</v>
+      </c>
+      <c r="S106" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T106" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="U106" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="V106" s="30">
+        <v>0</v>
+      </c>
+      <c r="W106" s="30">
+        <v>0</v>
+      </c>
+      <c r="X106" s="30">
+        <v>8</v>
+      </c>
+      <c r="Y106" s="45"/>
+      <c r="AA106" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB106" s="5">
+        <v>14</v>
+      </c>
+      <c r="AC106" s="2"/>
+      <c r="AI106" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ106" s="30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:36" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4520,8 +6219,45 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
-    </row>
-    <row r="108" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q107" s="3">
+        <v>1</v>
+      </c>
+      <c r="R107" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="S107" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="T107" s="69">
+        <v>4</v>
+      </c>
+      <c r="U107" s="69">
+        <v>8</v>
+      </c>
+      <c r="V107" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="W107" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="X107" s="69">
+        <v>3</v>
+      </c>
+      <c r="AA107" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB107" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC107" s="2"/>
+      <c r="AI107" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ107" s="30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:36" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4536,8 +6272,42 @@
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
-    </row>
-    <row r="109" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q108" s="3">
+        <v>1</v>
+      </c>
+      <c r="R108" s="70">
+        <v>0</v>
+      </c>
+      <c r="S108" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="T108" s="69">
+        <v>3</v>
+      </c>
+      <c r="U108" s="69">
+        <v>5</v>
+      </c>
+      <c r="V108" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="W108" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="X108" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z108" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC108" s="2"/>
+      <c r="AI108" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ108" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4552,8 +6322,13 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
-    </row>
-    <row r="110" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R109" s="68"/>
+      <c r="Z109" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC109" s="2"/>
+    </row>
+    <row r="110" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4568,8 +6343,30 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
-    </row>
-    <row r="111" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R110" s="70">
+        <v>0</v>
+      </c>
+      <c r="S110" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="T110" s="41">
+        <v>3</v>
+      </c>
+      <c r="U110" s="48">
+        <v>5</v>
+      </c>
+      <c r="V110" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="W110" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="X110" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC110" s="2"/>
+    </row>
+    <row r="111" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4584,8 +6381,20 @@
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
-    </row>
-    <row r="112" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R111" s="70">
+        <v>0</v>
+      </c>
+      <c r="S111" s="72"/>
+      <c r="T111" s="72"/>
+      <c r="U111" s="72"/>
+      <c r="V111" s="72"/>
+      <c r="W111" s="72"/>
+      <c r="X111" s="72">
+        <v>1</v>
+      </c>
+      <c r="AC111" s="2"/>
+    </row>
+    <row r="112" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4600,8 +6409,28 @@
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
-    </row>
-    <row r="113" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R112" s="70"/>
+      <c r="S112" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="T112" s="41">
+        <v>3</v>
+      </c>
+      <c r="U112" s="48">
+        <v>5</v>
+      </c>
+      <c r="V112" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="W112" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="X112" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC112" s="2"/>
+    </row>
+    <row r="113" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4616,8 +6445,10 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
-    </row>
-    <row r="114" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R113" s="70"/>
+      <c r="AC113" s="2"/>
+    </row>
+    <row r="114" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4632,8 +6463,17 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
-    </row>
-    <row r="115" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R114" s="70"/>
+      <c r="T114" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="U114" s="55"/>
+      <c r="V114" s="54"/>
+      <c r="W114" s="54"/>
+      <c r="X114" s="54"/>
+      <c r="AC114" s="2"/>
+    </row>
+    <row r="115" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4648,8 +6488,12 @@
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
-    </row>
-    <row r="116" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R115" s="70"/>
+      <c r="AC115" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4664,8 +6508,37 @@
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R116" s="70"/>
+      <c r="S116" s="30">
+        <v>3</v>
+      </c>
+      <c r="T116" s="30">
+        <v>2</v>
+      </c>
+      <c r="U116" s="65">
+        <v>0</v>
+      </c>
+      <c r="V116" s="30">
+        <v>0</v>
+      </c>
+      <c r="W116" s="30">
+        <v>1</v>
+      </c>
+      <c r="X116" s="30">
+        <v>2</v>
+      </c>
+      <c r="Y116" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z116" s="30">
+        <v>3</v>
+      </c>
+      <c r="AA116" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC116" s="2"/>
+    </row>
+    <row r="117" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4680,8 +6553,29 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
-    </row>
-    <row r="118" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R117" s="70"/>
+      <c r="S117" s="72"/>
+      <c r="T117" s="72"/>
+      <c r="U117" s="72"/>
+      <c r="V117" s="72">
+        <v>3</v>
+      </c>
+      <c r="W117" s="72">
+        <v>3</v>
+      </c>
+      <c r="X117" s="72">
+        <v>3</v>
+      </c>
+      <c r="Y117" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z117" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA117" s="76"/>
+      <c r="AC117" s="2"/>
+    </row>
+    <row r="118" spans="1:29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4696,8 +6590,39 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
-    </row>
-    <row r="119" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R118" s="70">
+        <v>3</v>
+      </c>
+      <c r="S118" s="72">
+        <v>3</v>
+      </c>
+      <c r="T118" s="72">
+        <v>3</v>
+      </c>
+      <c r="U118" s="72">
+        <v>3</v>
+      </c>
+      <c r="V118" s="72">
+        <v>0</v>
+      </c>
+      <c r="W118" s="72">
+        <v>0</v>
+      </c>
+      <c r="X118" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y118" s="72">
+        <v>3</v>
+      </c>
+      <c r="Z118" s="72">
+        <v>2</v>
+      </c>
+      <c r="AB118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC118" s="2"/>
+    </row>
+    <row r="119" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4712,8 +6637,39 @@
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
-    </row>
-    <row r="120" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R119" s="70">
+        <v>3</v>
+      </c>
+      <c r="S119" s="30">
+        <v>3</v>
+      </c>
+      <c r="T119" s="30">
+        <v>3</v>
+      </c>
+      <c r="U119" s="30">
+        <v>3</v>
+      </c>
+      <c r="V119" s="30">
+        <v>0</v>
+      </c>
+      <c r="W119" s="30">
+        <v>0</v>
+      </c>
+      <c r="X119" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y119" s="30">
+        <v>3</v>
+      </c>
+      <c r="Z119" s="30">
+        <v>2</v>
+      </c>
+      <c r="AA119" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC119" s="2"/>
+    </row>
+    <row r="120" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4728,8 +6684,24 @@
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
-    </row>
-    <row r="121" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R120" s="70"/>
+      <c r="S120" s="72"/>
+      <c r="T120" s="72"/>
+      <c r="U120" s="72"/>
+      <c r="V120" s="72"/>
+      <c r="W120" s="72"/>
+      <c r="X120" s="72"/>
+      <c r="Y120" s="72"/>
+      <c r="Z120" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA120" s="76"/>
+      <c r="AB120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC120" s="2"/>
+    </row>
+    <row r="121" spans="1:29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4744,8 +6716,36 @@
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
-    </row>
-    <row r="122" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R121" s="70">
+        <v>3</v>
+      </c>
+      <c r="S121" s="72">
+        <v>3</v>
+      </c>
+      <c r="T121" s="72">
+        <v>3</v>
+      </c>
+      <c r="U121" s="72">
+        <v>3</v>
+      </c>
+      <c r="V121" s="72">
+        <v>0</v>
+      </c>
+      <c r="W121" s="72">
+        <v>0</v>
+      </c>
+      <c r="X121" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y121" s="72">
+        <v>3</v>
+      </c>
+      <c r="Z121" s="72">
+        <v>3</v>
+      </c>
+      <c r="AC121" s="2"/>
+    </row>
+    <row r="122" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4760,8 +6760,27 @@
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
-    </row>
-    <row r="123" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R122" s="89">
+        <v>1</v>
+      </c>
+      <c r="S122" s="90">
+        <v>1</v>
+      </c>
+      <c r="T122" s="40"/>
+      <c r="U122" s="40"/>
+      <c r="V122" s="40"/>
+      <c r="W122" s="40"/>
+      <c r="X122" s="40">
+        <v>1</v>
+      </c>
+      <c r="Y122" s="40">
+        <v>1</v>
+      </c>
+      <c r="Z122" s="40"/>
+      <c r="AA122" s="30"/>
+      <c r="AC122" s="2"/>
+    </row>
+    <row r="123" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4776,8 +6795,42 @@
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
-    </row>
-    <row r="124" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R123" s="70">
+        <v>0</v>
+      </c>
+      <c r="S123" s="30">
+        <v>3</v>
+      </c>
+      <c r="T123" s="30">
+        <v>2</v>
+      </c>
+      <c r="U123" s="65">
+        <v>0</v>
+      </c>
+      <c r="V123" s="30">
+        <v>0</v>
+      </c>
+      <c r="W123" s="30">
+        <v>1</v>
+      </c>
+      <c r="X123" s="30">
+        <v>2</v>
+      </c>
+      <c r="Y123" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z123" s="30">
+        <v>3</v>
+      </c>
+      <c r="AA123" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB123" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC123" s="2"/>
+    </row>
+    <row r="124" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4792,8 +6845,37 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
-    </row>
-    <row r="125" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R124" s="70">
+        <v>3</v>
+      </c>
+      <c r="S124" s="72">
+        <v>3</v>
+      </c>
+      <c r="T124" s="72">
+        <v>3</v>
+      </c>
+      <c r="U124" s="72">
+        <v>3</v>
+      </c>
+      <c r="V124" s="72">
+        <v>0</v>
+      </c>
+      <c r="W124" s="72">
+        <v>0</v>
+      </c>
+      <c r="X124" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y124" s="72">
+        <v>3</v>
+      </c>
+      <c r="Z124" s="72">
+        <v>3</v>
+      </c>
+      <c r="AA124" s="76"/>
+      <c r="AC124" s="2"/>
+    </row>
+    <row r="125" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4808,8 +6890,43 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
-    </row>
-    <row r="126" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q125" s="3">
+        <v>1</v>
+      </c>
+      <c r="R125" s="70">
+        <v>0</v>
+      </c>
+      <c r="S125" s="30">
+        <v>2</v>
+      </c>
+      <c r="T125" s="30">
+        <v>1</v>
+      </c>
+      <c r="U125" s="30">
+        <v>3</v>
+      </c>
+      <c r="V125" s="30">
+        <v>0</v>
+      </c>
+      <c r="W125" s="30">
+        <v>1</v>
+      </c>
+      <c r="X125" s="30">
+        <v>3</v>
+      </c>
+      <c r="Y125" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z125" s="30">
+        <v>2</v>
+      </c>
+      <c r="AA125" s="30"/>
+      <c r="AB125" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC125" s="2"/>
+    </row>
+    <row r="126" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4824,8 +6941,19 @@
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
-    </row>
-    <row r="127" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R126" s="70"/>
+      <c r="S126" s="30"/>
+      <c r="T126" s="30"/>
+      <c r="U126" s="30"/>
+      <c r="V126" s="30"/>
+      <c r="W126" s="30"/>
+      <c r="X126" s="30"/>
+      <c r="Y126" s="30"/>
+      <c r="Z126" s="30"/>
+      <c r="AA126" s="30"/>
+      <c r="AC126" s="2"/>
+    </row>
+    <row r="127" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4840,8 +6968,19 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
-    </row>
-    <row r="128" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R127" s="70"/>
+      <c r="S127" s="30"/>
+      <c r="T127" s="30"/>
+      <c r="U127" s="30"/>
+      <c r="V127" s="30"/>
+      <c r="W127" s="30"/>
+      <c r="X127" s="30"/>
+      <c r="Y127" s="30"/>
+      <c r="Z127" s="30"/>
+      <c r="AA127" s="30"/>
+      <c r="AC127" s="2"/>
+    </row>
+    <row r="128" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4856,8 +6995,19 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
-    </row>
-    <row r="129" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R128" s="70"/>
+      <c r="S128" s="30"/>
+      <c r="T128" s="30"/>
+      <c r="U128" s="30"/>
+      <c r="V128" s="30"/>
+      <c r="W128" s="30"/>
+      <c r="X128" s="30"/>
+      <c r="Y128" s="30"/>
+      <c r="Z128" s="30"/>
+      <c r="AA128" s="30"/>
+      <c r="AC128" s="2"/>
+    </row>
+    <row r="129" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4872,8 +7022,19 @@
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
-    </row>
-    <row r="130" spans="1:14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R129" s="70"/>
+      <c r="S129" s="30"/>
+      <c r="T129" s="30"/>
+      <c r="U129" s="30"/>
+      <c r="V129" s="30"/>
+      <c r="W129" s="30"/>
+      <c r="X129" s="30"/>
+      <c r="Y129" s="30"/>
+      <c r="Z129" s="30"/>
+      <c r="AA129" s="30"/>
+      <c r="AC129" s="2"/>
+    </row>
+    <row r="130" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4888,18 +7049,70 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
+      <c r="R130" s="70"/>
+      <c r="S130" s="30"/>
+      <c r="T130" s="30"/>
+      <c r="U130" s="30"/>
+      <c r="V130" s="30"/>
+      <c r="W130" s="30"/>
+      <c r="X130" s="30"/>
+      <c r="Y130" s="30"/>
+      <c r="Z130" s="30"/>
+      <c r="AA130" s="30"/>
+      <c r="AC130" s="2"/>
+    </row>
+    <row r="131" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="R131" s="70"/>
+      <c r="S131" s="30"/>
+      <c r="T131" s="30"/>
+      <c r="U131" s="30"/>
+      <c r="V131" s="30"/>
+      <c r="W131" s="30"/>
+      <c r="X131" s="30"/>
+      <c r="Y131" s="30"/>
+      <c r="Z131" s="30"/>
+      <c r="AA131" s="30"/>
+      <c r="AC131" s="2"/>
+    </row>
+    <row r="132" spans="1:29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S132" s="30"/>
+      <c r="T132" s="30"/>
+      <c r="U132" s="30"/>
+      <c r="V132" s="30"/>
+      <c r="W132" s="30"/>
+      <c r="X132" s="30"/>
+      <c r="Y132" s="30"/>
+      <c r="Z132" s="30"/>
+      <c r="AA132" s="30"/>
+    </row>
+    <row r="133" spans="1:29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S133" s="30"/>
+      <c r="T133" s="30"/>
+      <c r="U133" s="30"/>
+      <c r="V133" s="30"/>
+      <c r="W133" s="30"/>
+      <c r="X133" s="30"/>
+      <c r="Y133" s="30"/>
+      <c r="Z133" s="30"/>
+      <c r="AA133" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="V29:Y29"/>
+  <mergeCells count="12">
+    <mergeCell ref="AA116:AA117"/>
+    <mergeCell ref="AA119:AA120"/>
+    <mergeCell ref="AA123:AA124"/>
+    <mergeCell ref="W50:W51"/>
+    <mergeCell ref="X56:X57"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="V47:Y47"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="J12:J17"/>
-    <mergeCell ref="Y15:Z15"/>
     <mergeCell ref="V22:Y22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>